--- a/result/网点鑫e贷授信2.0.xlsx
+++ b/result/网点鑫e贷授信2.0.xlsx
@@ -151,7 +151,7 @@
     <t>潼港分理处</t>
   </si>
   <si>
-    <t>东波支行</t>
+    <t>东波分理处</t>
   </si>
   <si>
     <t>益江分理处</t>
@@ -567,13 +567,13 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -596,25 +596,25 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0.44</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -625,25 +625,25 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -654,25 +654,25 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>266</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>13.3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -683,25 +683,25 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>4.55</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -712,25 +712,25 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -741,25 +741,25 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -770,25 +770,25 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>7.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -799,25 +799,25 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1.73</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -886,25 +886,25 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -915,25 +915,25 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -944,25 +944,25 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="I15">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -973,25 +973,25 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1002,25 +1002,25 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1031,25 +1031,25 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1060,25 +1060,25 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1144,25 +1144,25 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>36.5</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>3.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1173,25 +1173,25 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1202,25 +1202,25 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>7</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I24">
-        <v>1.93</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1231,25 +1231,25 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>5.86</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1318,25 +1318,25 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1347,25 +1347,25 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1376,25 +1376,25 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1405,25 +1405,25 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>6</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>6</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>12</v>
-      </c>
       <c r="I31">
-        <v>1.71</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1434,25 +1434,25 @@
         <v>15</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1550,25 +1550,25 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>6.29</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>68.5</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>6.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1639,7 +1639,13 @@
       <c r="C39">
         <v>0</v>
       </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
       <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
@@ -1683,25 +1689,25 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1712,25 +1718,25 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1741,25 +1747,25 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>1.43</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1770,25 +1776,25 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">

--- a/result/网点鑫e贷授信2.0.xlsx
+++ b/result/网点鑫e贷授信2.0.xlsx
@@ -567,7 +567,7 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -683,25 +683,25 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -799,25 +799,25 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I10">
-        <v>0.13</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -944,7 +944,7 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1173,7 +1173,7 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1202,25 +1202,25 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>7</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I24">
-        <v>0.67</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1321,22 +1321,22 @@
         <v>2</v>
       </c>
       <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>2</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1611,22 +1611,22 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>1</v>

--- a/result/网点鑫e贷授信2.0.xlsx
+++ b/result/网点鑫e贷授信2.0.xlsx
@@ -683,7 +683,7 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -741,25 +741,25 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -799,7 +799,7 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -1060,25 +1060,25 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
         <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1202,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>10</v>
@@ -1289,25 +1289,25 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1318,7 +1318,7 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1608,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -1689,25 +1689,25 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1747,25 +1747,25 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="44" spans="1:9">

--- a/result/网点鑫e贷授信2.0.xlsx
+++ b/result/网点鑫e贷授信2.0.xlsx
@@ -625,25 +625,25 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -741,7 +741,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1289,7 +1289,7 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1318,25 +1318,25 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1689,7 +1689,7 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1747,25 +1747,25 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I43">
-        <v>0.57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9">

--- a/result/网点鑫e贷授信2.0.xlsx
+++ b/result/网点鑫e贷授信2.0.xlsx
@@ -567,13 +567,13 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -596,25 +596,25 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="I3">
-        <v>0.08</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -628,22 +628,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -654,25 +654,25 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>11.5</v>
       </c>
       <c r="I5">
-        <v>0.3</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -686,22 +686,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -741,13 +741,13 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I8">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -799,25 +799,25 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I10">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -831,22 +831,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -889,22 +889,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1060,25 +1060,25 @@
         <v>10</v>
       </c>
       <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>8</v>
       </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1173,25 +1173,25 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>14</v>
+      </c>
+      <c r="I23">
         <v>2</v>
-      </c>
-      <c r="I23">
-        <v>0.29</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1231,25 +1231,25 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I25">
-        <v>0.29</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1289,7 +1289,7 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1318,25 +1318,25 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I28">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1408,22 +1408,22 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I31">
-        <v>0.86</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1611,22 +1611,22 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I38">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1689,7 +1689,7 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1747,25 +1747,25 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I43">
-        <v>0.57</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="44" spans="1:9">

--- a/result/网点鑫e贷授信2.0.xlsx
+++ b/result/网点鑫e贷授信2.0.xlsx
@@ -564,16 +564,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0.92</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -593,28 +593,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -622,28 +622,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -651,28 +651,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -680,28 +680,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -709,28 +709,28 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>14.1666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -738,28 +738,28 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -796,28 +796,28 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>20</v>
-      </c>
       <c r="I10">
-        <v>1.33</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -825,28 +825,28 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>14.1666666666667</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -854,7 +854,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -883,28 +883,28 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -912,7 +912,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>14.1666666666667</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>4.5</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>7.5</v>
-      </c>
       <c r="I15">
-        <v>0.38</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -970,28 +970,28 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -999,7 +999,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1057,28 +1057,28 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1086,7 +1086,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>10.8333333333333</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1170,28 +1170,28 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1199,28 +1199,28 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1228,28 +1228,28 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>2</v>
       </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>8</v>
-      </c>
       <c r="I25">
-        <v>1.14</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1257,7 +1257,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1318,25 +1318,25 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1344,7 +1344,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1402,28 +1402,28 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1431,7 +1431,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1460,28 +1460,28 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1489,7 +1489,7 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1547,28 +1547,28 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1576,7 +1576,7 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1611,22 +1611,22 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1634,7 +1634,7 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1663,12 +1663,18 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
       <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
@@ -1686,28 +1692,28 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1715,7 +1721,7 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1744,28 +1750,28 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>1.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1773,28 +1779,28 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1802,7 +1808,7 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C45">
         <v>0</v>

--- a/result/网点鑫e贷授信2.0.xlsx
+++ b/result/网点鑫e贷授信2.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>鑫e贷授信_指标</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>鑫e贷授信_协同外拓</t>
-  </si>
-  <si>
-    <t>鑫e贷授信_A款计0.5户</t>
   </si>
   <si>
     <t>鑫e贷授信_数据调整数</t>
@@ -527,13 +524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,42 +552,36 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B2">
         <v>16.6666666666667</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>16.6666666666667</v>
@@ -599,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,27 +599,24 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>12.5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,27 +625,24 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>16.6666666666667</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -666,27 +651,24 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>16.6666666666667</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -695,85 +677,76 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>14.1666666666667</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
         <v>0.14</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>16.6666666666667</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -782,18 +755,15 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>16.6666666666667</v>
@@ -802,36 +772,33 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>14.1666666666667</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -840,18 +807,15 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>13.3333333333333</v>
@@ -874,13 +838,10 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>16.6666666666667</v>
@@ -889,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -898,18 +859,15 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>14.1666666666667</v>
@@ -932,51 +890,45 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>16.6666666666667</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>16.6666666666667</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -985,85 +937,76 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
-        <v>8.33333333333333</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
+      <c r="B18">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C18">
+        <v>-2.5</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B18">
-        <v>8.33333333333333</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="B19">
         <v>12.5</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1072,18 +1015,15 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>10.8333333333333</v>
@@ -1106,39 +1046,27 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>12.5</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -1161,42 +1089,36 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C23">
+        <v>-4</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B23">
-        <v>8.33333333333333</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="B24">
         <v>12.5</v>
@@ -1219,138 +1141,123 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C25">
+        <v>-0.5</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25">
-        <v>8.33333333333333</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
+      <c r="B26">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B26">
-        <v>8.33333333333333</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
+      <c r="B27">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B27">
-        <v>8.33333333333333</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>12.5</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1359,259 +1266,232 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C30">
+        <v>-1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B30">
-        <v>8.33333333333333</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1" t="s">
+      <c r="B31">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C31">
+        <v>-2</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B31">
-        <v>8.33333333333333</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
+      <c r="B32">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B32">
-        <v>8.33333333333333</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="1" t="s">
+      <c r="B33">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C33">
+        <v>-1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B33">
-        <v>8.33333333333333</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="1" t="s">
+      <c r="B34">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C34">
+        <v>-1</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B34">
-        <v>8.33333333333333</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="1" t="s">
+      <c r="B35">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B35">
-        <v>8.33333333333333</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="1" t="s">
+      <c r="B36">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C36">
+        <v>0.5</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B36">
-        <v>8.33333333333333</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="1" t="s">
+      <c r="B37">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C37">
+        <v>-1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B37">
-        <v>8.33333333333333</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="B38">
         <v>10</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1620,76 +1500,67 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C39">
+        <v>-1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B39">
-        <v>8.33333333333333</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="1" t="s">
+      <c r="B40">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C40">
+        <v>-1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B40">
-        <v>8.33333333333333</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -1712,13 +1583,10 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>12.5</v>
@@ -1741,72 +1609,63 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C43">
+        <v>-2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B43">
-        <v>8.33333333333333</v>
-      </c>
-      <c r="C43">
+      <c r="B44">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C44">
+        <v>-2</v>
+      </c>
+      <c r="D44">
         <v>2</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
         <v>2</v>
       </c>
-      <c r="I43">
+      <c r="H44">
         <v>0.24</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B44">
-        <v>8.33333333333333</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-      <c r="I44">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="B45">
         <v>8.33333333333333</v>
       </c>
@@ -1826,9 +1685,6 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
         <v>0</v>
       </c>
     </row>

--- a/result/网点鑫e贷授信2.0.xlsx
+++ b/result/网点鑫e贷授信2.0.xlsx
@@ -561,22 +561,22 @@
         <v>16.6666666666667</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>0.78</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -613,7 +613,7 @@
         <v>12.5</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -639,7 +639,7 @@
         <v>16.6666666666667</v>
       </c>
       <c r="C5">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -665,7 +665,7 @@
         <v>16.6666666666667</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -691,7 +691,7 @@
         <v>14.1666666666667</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -717,22 +717,22 @@
         <v>16.6666666666667</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -743,7 +743,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -795,7 +795,7 @@
         <v>14.1666666666667</v>
       </c>
       <c r="C11">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -899,22 +899,22 @@
         <v>16.6666666666667</v>
       </c>
       <c r="C15">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H15">
-        <v>0.9</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -925,7 +925,7 @@
         <v>16.6666666666667</v>
       </c>
       <c r="C16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -951,7 +951,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C18">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1003,7 +1003,7 @@
         <v>12.5</v>
       </c>
       <c r="C19">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1098,10 +1098,10 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C23">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1150,7 +1150,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C25">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -1176,7 +1176,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1228,7 +1228,7 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -1254,7 +1254,7 @@
         <v>12.5</v>
       </c>
       <c r="C29">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1280,7 +1280,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1358,22 +1358,22 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H33">
-        <v>0.12</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1384,7 +1384,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1436,7 +1436,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1462,7 +1462,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1488,7 +1488,7 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -1514,7 +1514,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1540,7 +1540,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1618,7 +1618,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C43">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1644,7 +1644,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C44">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>2</v>
